--- a/OnBoard/output/trust/fogli_cala_trust/StationTablet_all.xlsx
+++ b/OnBoard/output/trust/fogli_cala_trust/StationTablet_all.xlsx
@@ -3555,7 +3555,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>0.53819444444444442</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
